--- a/fuentes/contenidos/grado10/guion04/EscaletaCN_10_04_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion04/EscaletaCN_10_04_CO.xlsx
@@ -1722,11 +1722,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,7 +1818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49"/>
       <c r="B2" s="47"/>
       <c r="C2" s="58"/>
@@ -1844,7 +1845,7 @@
       <c r="T2" s="41"/>
       <c r="U2" s="39"/>
     </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -2434,7 +2435,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="73" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="73" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
         <v>17</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="73" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="73" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="59" t="s">
         <v>17</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="73" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" s="73" customFormat="1" ht="17.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="59" t="s">
         <v>17</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -3065,7 +3066,7 @@
       <c r="T23" s="26"/>
       <c r="U23" s="24"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
@@ -4348,6 +4349,13 @@
   </sheetData>
   <autoFilter ref="A1:U25">
     <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="19">
+      <filters>
+        <filter val="Refuerza tu aprendizaje: ¿Qué son las fuerzas?"/>
+        <filter val="Refuerza tu aprendizaje: El modelo actual del universo"/>
+        <filter val="Refuerza tu aprendizaje: Las fuerzas en una polea"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="I1:I2"/>
